--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmbou\Source\eagle\nixie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8528B64-B571-4CF2-AAA7-A63D9D303850}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D495680-5353-4E78-B30B-7093C27BB59E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{BFEC3CB6-2C13-4625-AB7A-A9B26EBADD8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Power Supply" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -382,6 +382,45 @@
   </si>
   <si>
     <t>Power Supply</t>
+  </si>
+  <si>
+    <t>C7,C8</t>
+  </si>
+  <si>
+    <t>1uF, 10V ceramic cap</t>
+  </si>
+  <si>
+    <t>445-7368-1-ND</t>
+  </si>
+  <si>
+    <t>C1005X6S1A105K050BC</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Level shifter</t>
+  </si>
+  <si>
+    <t>296-12163-1-ND</t>
+  </si>
+  <si>
+    <t>CD40109BPWR</t>
+  </si>
+  <si>
+    <t>16-TSSOP</t>
+  </si>
+  <si>
+    <t>F1,F2</t>
+  </si>
+  <si>
+    <t>500mA fuse</t>
+  </si>
+  <si>
+    <t>507-1876-1-ND</t>
+  </si>
+  <si>
+    <t>C1F 500</t>
   </si>
 </sst>
 </file>
@@ -745,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B876797-42B5-45E4-AA29-9E40C0B84BCC}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +795,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -956,7 +995,7 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -973,7 +1012,7 @@
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -999,240 +1038,280 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <f>1000*0.000001</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>114</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" t="s">
         <v>56</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmbou\Source\eagle\nixie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D495680-5353-4E78-B30B-7093C27BB59E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6936BC94-6E35-4A4A-9D99-13E55DDAD90A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{BFEC3CB6-2C13-4625-AB7A-A9B26EBADD8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>C1F 500</t>
+  </si>
+  <si>
+    <t>Phoenix Sep</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1264,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
       <c r="B28" t="s">
         <v>111</v>
       </c>
